--- a/thrustCurveData.xlsx
+++ b/thrustCurveData.xlsx
@@ -1,64 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Desktop\Folders\PythonSim\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60225BF1-542E-4D21-99E5-DD74267CC88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15675" yWindow="2700" windowWidth="12315" windowHeight="10035" xr2:uid="{D3A3793F-8222-4FB7-A7F8-70F938C4B038}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15675" yWindow="2700" windowWidth="12315" windowHeight="10035" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,23 +45,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,225 +419,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F313AEBC-D99C-4BEF-A114-C2DC710D736C}">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="B1">
-        <v>7.6379999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="B2">
-        <v>12.253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B3">
-        <v>16.390999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="B4">
-        <v>20.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="B5">
-        <v>22.756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="B6">
-        <v>25.26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="B7">
-        <v>23.074000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="B8">
-        <v>20.844999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="B9">
-        <v>19.093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="B10">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="B11">
-        <v>16.225000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="B12">
-        <v>15.427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="B13">
-        <v>14.948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1.423</v>
-      </c>
-      <c r="B14">
-        <v>14.627000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1.452</v>
-      </c>
-      <c r="B15">
-        <v>15.741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1.5029999999999999</v>
-      </c>
-      <c r="B16">
-        <v>14.785</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1.736</v>
-      </c>
-      <c r="B17">
-        <v>14.622999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1.9550000000000001</v>
-      </c>
-      <c r="B18">
-        <v>14.303000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2.21</v>
-      </c>
-      <c r="B19">
-        <v>14.141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2.4940000000000002</v>
-      </c>
-      <c r="B20">
-        <v>13.819000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2.7629999999999999</v>
-      </c>
-      <c r="B21">
-        <v>13.337999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>3.12</v>
-      </c>
-      <c r="B22">
-        <v>13.334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>3.3820000000000001</v>
-      </c>
-      <c r="B23">
-        <v>13.013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>3.4039999999999999</v>
-      </c>
-      <c r="B24">
-        <v>9.3520000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>3.4180000000000001</v>
-      </c>
-      <c r="B25">
-        <v>4.8949999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>3.45</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/thrustCurveData.xlsx
+++ b/thrustCurveData.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/thrustCurveData.xlsx
+++ b/thrustCurveData.xlsx
@@ -424,14 +424,489 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B2" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B3" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B4" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B5" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B6" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C7" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C8" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C9" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C10" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C20" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C21" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B23" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B24" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B25" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B26" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B27" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C28" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C29" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C30" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C31" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C32" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C34" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C35" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C41" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C42" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/thrustCurveData.xlsx
+++ b/thrustCurveData.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C720"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E23" sqref="A1:XFD1048576"/>
@@ -906,6 +906,7656 @@
         <v>200.3013157894747</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B44" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B45" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B46" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B47" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B48" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C49" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C50" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C51" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C52" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C53" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C54" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C56" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C57" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C59" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C60" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C62" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C63" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B65" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B66" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B67" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B68" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B69" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C70" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C71" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C72" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C73" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C74" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C75" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C76" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C77" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C79" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C80" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C81" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C83" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C84" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B86" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B87" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B88" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B89" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B90" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C91" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C92" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C93" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C94" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C95" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C96" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C97" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C98" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C99" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C100" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C101" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C102" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C103" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C104" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C105" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B107" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B108" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B109" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B110" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B111" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C112" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C113" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C114" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C115" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C116" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C117" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C118" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C119" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C120" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C121" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C122" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C123" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C125" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C126" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B128" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B129" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B130" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B131" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B132" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C133" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C134" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C135" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C136" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C137" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C138" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C139" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C140" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C141" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C142" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C143" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C144" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C145" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C146" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C147" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B149" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B150" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B151" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B152" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B153" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C154" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C155" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C156" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C157" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C158" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C159" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C160" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C162" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C163" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C164" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C166" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C167" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C168" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B170" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B171" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B172" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B173" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B174" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C175" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C176" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C177" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C178" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C179" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C180" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C181" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C183" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C184" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C185" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C187" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C188" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C189" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B191" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B192" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B193" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B194" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B195" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C196" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C197" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C198" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C199" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C200" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C201" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C202" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C203" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C204" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C205" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C206" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C207" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C208" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C209" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C210" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="B212" t="n">
+        <v>51.60810810810811</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="B213" t="n">
+        <v>57.68749999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-0.8997499999999992</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="B214" t="n">
+        <v>62.6969696969697</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-2.04190909090909</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="B215" t="n">
+        <v>64.72881355932208</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-2.639271186440691</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="B216" t="n">
+        <v>87.79310344827576</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-10.78096551724134</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="B217" t="n">
+        <v>67.67567567567575</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-3.096108108108137</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-37.68965517241379</v>
+      </c>
+      <c r="C218" t="n">
+        <v>41.05196551724138</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-51.8372093023256</v>
+      </c>
+      <c r="C219" t="n">
+        <v>47.80034883720931</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-24</v>
+      </c>
+      <c r="C220" t="n">
+        <v>33.325</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-16.76842105263158</v>
+      </c>
+      <c r="C221" t="n">
+        <v>29.03667368421053</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-7.634730538922145</v>
+      </c>
+      <c r="C222" t="n">
+        <v>22.75269461077843</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-4.384615384615396</v>
+      </c>
+      <c r="C223" t="n">
+        <v>19.97384615384616</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-2.851190476190469</v>
+      </c>
+      <c r="C224" t="n">
+        <v>18.38368452380951</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-1.472477064220183</v>
+      </c>
+      <c r="C225" t="n">
+        <v>16.72233486238532</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="B226" t="n">
+        <v>38.41379310344836</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-40.03582758620701</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-18.7450980392157</v>
+      </c>
+      <c r="C227" t="n">
+        <v>42.9588823529412</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-0.6952789699570847</v>
+      </c>
+      <c r="C228" t="n">
+        <v>15.8300042918455</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1.955</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-1.461187214611865</v>
+      </c>
+      <c r="C229" t="n">
+        <v>17.1596210045662</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.6352941176470622</v>
+      </c>
+      <c r="C230" t="n">
+        <v>15.54500000000001</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2.494</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-1.133802816901404</v>
+      </c>
+      <c r="C231" t="n">
+        <v>16.6467042253521</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2.763</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-1.788104089219339</v>
+      </c>
+      <c r="C232" t="n">
+        <v>18.27853159851303</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.01120448179271585</v>
+      </c>
+      <c r="C233" t="n">
+        <v>13.36895798319327</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>3.382</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-1.225190839694655</v>
+      </c>
+      <c r="C234" t="n">
+        <v>17.15659541984732</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>3.404</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-166.4090909090924</v>
+      </c>
+      <c r="C235" t="n">
+        <v>575.8085454545505</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>3.418</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-318.3571428571376</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1093.039714285696</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-152.9687499999999</v>
+      </c>
+      <c r="C237" t="n">
+        <v>527.7421874999995</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B239" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B240" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B241" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B242" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B243" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C244" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C245" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C246" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C247" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C248" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C249" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C250" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C251" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C252" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C253" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C254" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C255" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C256" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C257" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C258" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B260" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B261" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C261" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B262" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C262" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B263" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C263" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B264" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C264" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C265" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C266" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C267" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C268" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C269" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C270" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C271" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C272" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C273" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C274" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C275" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C276" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C277" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C278" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C279" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B281" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B282" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B283" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C283" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B284" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C284" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B285" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C285" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C286" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C287" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C288" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C289" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C290" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C291" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C292" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C293" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C294" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C295" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C296" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C297" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C298" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C299" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C300" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B302" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B303" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C303" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B304" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C304" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B305" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C305" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B306" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C306" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C307" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C308" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C309" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C310" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C311" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C312" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C313" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C314" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B315" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C315" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B316" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C316" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C317" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B318" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C318" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C319" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B320" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C320" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B321" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C321" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B323" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B324" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C324" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B325" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C325" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B326" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C326" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B327" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C327" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C328" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C329" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B330" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C330" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B331" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C331" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B332" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C332" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B333" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C333" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B334" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C334" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B335" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C335" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C336" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C337" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C338" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C339" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C340" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C341" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B342" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C342" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B344" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B345" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C345" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B346" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C346" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B347" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C347" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B348" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C348" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B349" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C349" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C350" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C351" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C352" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C353" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C354" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C355" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C356" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C357" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B358" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C358" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B359" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C359" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C360" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C361" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B362" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C362" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C363" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B365" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B366" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C366" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B367" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C367" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B368" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C368" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B369" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C369" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B370" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C370" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B371" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C371" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C372" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B373" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C373" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B374" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C374" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B375" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C375" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B376" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C376" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B377" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C377" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B378" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C378" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B379" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C379" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C380" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C381" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C382" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C383" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C384" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B386" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B387" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C387" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B388" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C388" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B389" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C389" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B390" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C390" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B391" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C391" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B392" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C392" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B393" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C393" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B394" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C394" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B395" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C395" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B396" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C396" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B397" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C397" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B398" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C398" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B399" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C399" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B400" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C400" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B401" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C401" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B402" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C402" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B403" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C403" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B404" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C404" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B405" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C405" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B407" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B408" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C408" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B409" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C409" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B410" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C410" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B411" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C411" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B412" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C412" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B413" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C413" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B414" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C414" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B415" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C415" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B416" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C416" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B417" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C417" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B418" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C418" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B419" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C419" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B420" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C420" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B421" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C421" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B422" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C422" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B423" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C423" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B424" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C424" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B425" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C425" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B426" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C426" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B428" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B429" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C429" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B430" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C430" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B431" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C431" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B432" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C432" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B433" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C433" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B434" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C434" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B435" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C435" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B436" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C436" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B437" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C437" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B438" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C438" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B439" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C439" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B440" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C440" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B441" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C441" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B442" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C442" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B443" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C443" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B444" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C444" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B445" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C445" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B446" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C446" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B447" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C447" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B449" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B450" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C450" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B451" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C451" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B452" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C452" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B453" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C453" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B454" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C454" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B455" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C455" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B456" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C456" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B457" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C457" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B458" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C458" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B459" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C459" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B460" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C460" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B461" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C461" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B462" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C462" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B463" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C463" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B464" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C464" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B465" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C465" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B466" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C466" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B467" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C467" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B468" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C468" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B470" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B471" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C471" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B472" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C472" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B473" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C473" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B474" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C474" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B475" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C475" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B476" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C476" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B477" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C477" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B478" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C478" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B479" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C479" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B480" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C480" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B481" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C481" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B482" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C482" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B483" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C483" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B484" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C484" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B485" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C485" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B486" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C486" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C487" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B488" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C488" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B489" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C489" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B491" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B492" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C492" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B493" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C493" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B494" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C494" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B495" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C495" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B496" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C496" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B497" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C497" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B498" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C498" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B499" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C499" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B500" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C500" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B501" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C501" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B502" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C502" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B503" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C503" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B504" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C504" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B505" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C505" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B506" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C506" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B507" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C507" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C508" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B509" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C509" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B510" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C510" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B512" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B513" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C513" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B514" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C514" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B515" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C515" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B516" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C516" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B517" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C517" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B518" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C518" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B519" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C519" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B520" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C520" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B521" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C521" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B522" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C522" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B523" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C523" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B524" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C524" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B525" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C525" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B526" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C526" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B527" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C527" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B528" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C528" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B529" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C529" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B530" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C530" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B531" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C531" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B533" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B534" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C534" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B535" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C535" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B536" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C536" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B537" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C537" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B538" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C538" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B539" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C539" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B540" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C540" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B541" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C541" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B542" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C542" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B543" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C543" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B544" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C544" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B545" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C545" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B546" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C546" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B547" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C547" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B548" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C548" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B549" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C549" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C550" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B551" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C551" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B552" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C552" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B554" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B555" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C555" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B556" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C556" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B557" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C557" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B558" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C558" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B559" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C559" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B560" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C560" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B561" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C561" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B562" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C562" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B563" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C563" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B564" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C564" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B565" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C565" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B566" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C566" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B567" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C567" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B568" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C568" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B569" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C569" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B570" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C570" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B571" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C571" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B572" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C572" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B573" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C573" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B575" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B576" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C576" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B577" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C577" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B578" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C578" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B579" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C579" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B580" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C580" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B581" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C581" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B582" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C582" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B583" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C583" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B584" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C584" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B585" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C585" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B586" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C586" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B587" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C587" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B588" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C588" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B589" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C589" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B590" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C590" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B591" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C591" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C592" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B593" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C593" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B594" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C594" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B596" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B597" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C597" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B598" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C598" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B599" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C599" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B600" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C600" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B601" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C601" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B602" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C602" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B603" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C603" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B604" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C604" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B605" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C605" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B606" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C606" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B607" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C607" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B608" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C608" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B609" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C609" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B610" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C610" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B611" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C611" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B612" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C612" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B613" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C613" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C614" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B615" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C615" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B617" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B618" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C618" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B619" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C619" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B620" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C620" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B621" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C621" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B622" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C622" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B623" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C623" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B624" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C624" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B625" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C625" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B626" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C626" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B627" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C627" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B628" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C628" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B629" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C629" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B630" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C630" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B631" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C631" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B632" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C632" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B633" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C633" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B634" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C634" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B635" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C635" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B636" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C636" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B638" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B639" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C639" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B640" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C640" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B641" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C641" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B642" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C642" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B643" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C643" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B644" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C644" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B645" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C645" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B646" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C646" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B647" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C647" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B648" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C648" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B649" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C649" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B650" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C650" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B651" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C651" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B652" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C652" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B653" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C653" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B654" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C654" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B655" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C655" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B656" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C656" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B657" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C657" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B659" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B660" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C660" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B661" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C661" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B662" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C662" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B663" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C663" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B664" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C664" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B665" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C665" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B666" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C666" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B667" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C667" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B668" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C668" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B669" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C669" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B670" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C670" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B671" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C671" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B672" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C672" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B673" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C673" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B674" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C674" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B675" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C675" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B676" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C676" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B677" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C677" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B678" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C678" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B680" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B681" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C681" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B682" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C682" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B683" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C683" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B684" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C684" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B685" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C685" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B686" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C686" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B687" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C687" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B688" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C688" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B689" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C689" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B690" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C690" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B691" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C691" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B692" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C692" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B693" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C693" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B694" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C694" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B695" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C695" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B696" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C696" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C697" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B698" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C698" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B699" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C699" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>EndTime</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B701" t="n">
+        <v>52.42857142857142</v>
+      </c>
+      <c r="C701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="B702" t="n">
+        <v>101.4925373134328</v>
+      </c>
+      <c r="C702" t="n">
+        <v>-2.404134328358209</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B703" t="n">
+        <v>116.2647058823529</v>
+      </c>
+      <c r="C703" t="n">
+        <v>-4.117705882352944</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="B704" t="n">
+        <v>131.7547169811321</v>
+      </c>
+      <c r="C704" t="n">
+        <v>-6.96786792452831</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="B705" t="n">
+        <v>121.6000000000001</v>
+      </c>
+      <c r="C705" t="n">
+        <v>-4.561200000000017</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="B706" t="n">
+        <v>-181.3333333333331</v>
+      </c>
+      <c r="C706" t="n">
+        <v>80.86599999999993</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="B707" t="n">
+        <v>-315.7857142857142</v>
+      </c>
+      <c r="C707" t="n">
+        <v>120.7983571428571</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B708" t="n">
+        <v>-418.0909090909087</v>
+      </c>
+      <c r="C708" t="n">
+        <v>152.6152727272726</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B709" t="n">
+        <v>-148.6153846153848</v>
+      </c>
+      <c r="C709" t="n">
+        <v>65.84415384615389</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="B710" t="n">
+        <v>-53.34210526315783</v>
+      </c>
+      <c r="C710" t="n">
+        <v>32.68905263157892</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="B711" t="n">
+        <v>-23.05357142857144</v>
+      </c>
+      <c r="C711" t="n">
+        <v>20.99767857142858</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="B712" t="n">
+        <v>-8.961538461538462</v>
+      </c>
+      <c r="C712" t="n">
+        <v>14.769</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="B713" t="n">
+        <v>-3.313953488372096</v>
+      </c>
+      <c r="C713" t="n">
+        <v>11.68541860465116</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="B714" t="n">
+        <v>-1.248447204968936</v>
+      </c>
+      <c r="C714" t="n">
+        <v>10.2023850931677</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="B715" t="n">
+        <v>-1.090909090909094</v>
+      </c>
+      <c r="C715" t="n">
+        <v>10.06390909090909</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="B716" t="n">
+        <v>-1.062827225130888</v>
+      </c>
+      <c r="C716" t="n">
+        <v>10.03397382198953</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B717" t="n">
+        <v>-2.167597765363127</v>
+      </c>
+      <c r="C717" t="n">
+        <v>11.42267039106145</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B718" t="n">
+        <v>-0.1038961038961039</v>
+      </c>
+      <c r="C718" t="n">
+        <v>8.459194805194805</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="B719" t="n">
+        <v>-167.3181818181817</v>
+      </c>
+      <c r="C719" t="n">
+        <v>274.3299090909089</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B720" t="n">
+        <v>-121.3947368421059</v>
+      </c>
+      <c r="C720" t="n">
+        <v>200.3013157894747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
